--- a/data/pca/factorExposure/factorExposure_2009-09-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01796546607877663</v>
+        <v>0.01674257776397364</v>
       </c>
       <c r="C2">
-        <v>-0.001549428076602497</v>
+        <v>-0.0009439871576528879</v>
       </c>
       <c r="D2">
-        <v>0.003426460599485091</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009564498913899381</v>
+      </c>
+      <c r="E2">
+        <v>-0.002166560911514482</v>
+      </c>
+      <c r="F2">
+        <v>0.0130721371341713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09676893797689076</v>
+        <v>0.09377087728459511</v>
       </c>
       <c r="C4">
-        <v>-0.02092763565417968</v>
+        <v>-0.01464476892670758</v>
       </c>
       <c r="D4">
-        <v>0.06481183432645495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0841629307740461</v>
+      </c>
+      <c r="E4">
+        <v>-0.02903232267514003</v>
+      </c>
+      <c r="F4">
+        <v>-0.03198162917367354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1480493828295122</v>
+        <v>0.1592234739873482</v>
       </c>
       <c r="C6">
-        <v>-0.02675163597476469</v>
+        <v>-0.0268803340949315</v>
       </c>
       <c r="D6">
-        <v>-0.02332560102100917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02451192704914438</v>
+      </c>
+      <c r="E6">
+        <v>-0.009681600945222737</v>
+      </c>
+      <c r="F6">
+        <v>-0.0422672258697876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06454042410152561</v>
+        <v>0.0634707798238347</v>
       </c>
       <c r="C7">
-        <v>-0.003207473824792225</v>
+        <v>0.001709514404334399</v>
       </c>
       <c r="D7">
-        <v>0.03804928782363083</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05281670833202043</v>
+      </c>
+      <c r="E7">
+        <v>-0.01213711787443047</v>
+      </c>
+      <c r="F7">
+        <v>-0.04628525856843543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06439224206841432</v>
+        <v>0.05775040927593104</v>
       </c>
       <c r="C8">
-        <v>0.009564265336823448</v>
+        <v>0.01313375741049259</v>
       </c>
       <c r="D8">
-        <v>0.01540640518240267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03227782143336624</v>
+      </c>
+      <c r="E8">
+        <v>-0.01761430276342892</v>
+      </c>
+      <c r="F8">
+        <v>0.02714595183978542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07471341733776185</v>
+        <v>0.07068459616165211</v>
       </c>
       <c r="C9">
-        <v>-0.01730533741574377</v>
+        <v>-0.01024169317162175</v>
       </c>
       <c r="D9">
-        <v>0.06692591004460557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08767936960209347</v>
+      </c>
+      <c r="E9">
+        <v>-0.02396278992886719</v>
+      </c>
+      <c r="F9">
+        <v>-0.04564297481540706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08000655082296911</v>
+        <v>0.09081397880690316</v>
       </c>
       <c r="C10">
-        <v>-0.01205667925666223</v>
+        <v>-0.02085733452493602</v>
       </c>
       <c r="D10">
-        <v>-0.1656534143819073</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1636886086163242</v>
+      </c>
+      <c r="E10">
+        <v>0.0319723472580067</v>
+      </c>
+      <c r="F10">
+        <v>0.05604097447810974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09471369390275604</v>
+        <v>0.0882671877338527</v>
       </c>
       <c r="C11">
-        <v>-0.0182808327574506</v>
+        <v>-0.01041250033178057</v>
       </c>
       <c r="D11">
-        <v>0.09294699735735563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171368187624979</v>
+      </c>
+      <c r="E11">
+        <v>-0.0456107952960832</v>
+      </c>
+      <c r="F11">
+        <v>-0.02143212798049403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1016005274500974</v>
+        <v>0.09198262216325954</v>
       </c>
       <c r="C12">
-        <v>-0.01628531735545369</v>
+        <v>-0.007762425516991627</v>
       </c>
       <c r="D12">
-        <v>0.09547944090785801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1318739321290996</v>
+      </c>
+      <c r="E12">
+        <v>-0.04539110285220787</v>
+      </c>
+      <c r="F12">
+        <v>-0.02953051462357171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04286811645535708</v>
+        <v>0.0413165273586396</v>
       </c>
       <c r="C13">
-        <v>-0.006177563383461206</v>
+        <v>-0.002372350526606387</v>
       </c>
       <c r="D13">
-        <v>0.03078960156188283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05284093785197221</v>
+      </c>
+      <c r="E13">
+        <v>0.004891552476786004</v>
+      </c>
+      <c r="F13">
+        <v>-0.0007336927605633227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02077968170689666</v>
+        <v>0.02404729883004777</v>
       </c>
       <c r="C14">
-        <v>-0.01536094718772859</v>
+        <v>-0.01383091741561222</v>
       </c>
       <c r="D14">
-        <v>0.02237291363672184</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03343273227377351</v>
+      </c>
+      <c r="E14">
+        <v>-0.01857651716651966</v>
+      </c>
+      <c r="F14">
+        <v>-0.01329546654632121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03553751929151396</v>
+        <v>0.03305536181953118</v>
       </c>
       <c r="C15">
-        <v>-0.007935993624512964</v>
+        <v>-0.004671584547361444</v>
       </c>
       <c r="D15">
-        <v>0.02878373883308735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04524617947760119</v>
+      </c>
+      <c r="E15">
+        <v>-0.005844837300718645</v>
+      </c>
+      <c r="F15">
+        <v>-0.02528347476368132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08101788754589945</v>
+        <v>0.07436972900629074</v>
       </c>
       <c r="C16">
-        <v>-0.008986232221346237</v>
+        <v>-0.0009866441857523647</v>
       </c>
       <c r="D16">
-        <v>0.09579931496447314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1277988229613553</v>
+      </c>
+      <c r="E16">
+        <v>-0.05997483355617463</v>
+      </c>
+      <c r="F16">
+        <v>-0.02624420842708878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0007464319614770899</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001893878770731645</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001528994867062636</v>
+      </c>
+      <c r="E17">
+        <v>-0.0009425008027019894</v>
+      </c>
+      <c r="F17">
+        <v>0.002235452425802193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.01686331505628531</v>
+        <v>0.03644988867138153</v>
       </c>
       <c r="C18">
-        <v>0.003146686982426886</v>
+        <v>0.002898279207517903</v>
       </c>
       <c r="D18">
-        <v>0.03119852635589163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01572059051922774</v>
+      </c>
+      <c r="E18">
+        <v>0.008745985879313708</v>
+      </c>
+      <c r="F18">
+        <v>0.008005851924646361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06738188430785745</v>
+        <v>0.06213066283134609</v>
       </c>
       <c r="C20">
-        <v>-0.00677610012222121</v>
+        <v>-0.0001463057111018414</v>
       </c>
       <c r="D20">
-        <v>0.04808601162630569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07758759631817808</v>
+      </c>
+      <c r="E20">
+        <v>-0.05531677346438788</v>
+      </c>
+      <c r="F20">
+        <v>-0.02896733488676676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04339828773011155</v>
+        <v>0.04059014019140093</v>
       </c>
       <c r="C21">
-        <v>-0.01027961342960704</v>
+        <v>-0.006405392664372074</v>
       </c>
       <c r="D21">
-        <v>0.02360907617714341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03862156744720358</v>
+      </c>
+      <c r="E21">
+        <v>0.001319737105681221</v>
+      </c>
+      <c r="F21">
+        <v>0.024576076710454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04107097379099768</v>
+        <v>0.04339547897374947</v>
       </c>
       <c r="C22">
-        <v>-0.0007757453872484476</v>
+        <v>-0.0005319248562193548</v>
       </c>
       <c r="D22">
-        <v>-0.01112160378602409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00413943855164423</v>
+      </c>
+      <c r="E22">
+        <v>-0.03661406212395453</v>
+      </c>
+      <c r="F22">
+        <v>0.03731124317384629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04103378514315053</v>
+        <v>0.04337123809752339</v>
       </c>
       <c r="C23">
-        <v>-0.0007662889978382874</v>
+        <v>-0.0005234137101700327</v>
       </c>
       <c r="D23">
-        <v>-0.01110151327634595</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004155275624786649</v>
+      </c>
+      <c r="E23">
+        <v>-0.03679685559374352</v>
+      </c>
+      <c r="F23">
+        <v>0.0372733076734934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08631366451466491</v>
+        <v>0.08003472490303622</v>
       </c>
       <c r="C24">
-        <v>-0.009389898356388714</v>
+        <v>-0.001679069679257546</v>
       </c>
       <c r="D24">
-        <v>0.1008816838005858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206603030755215</v>
+      </c>
+      <c r="E24">
+        <v>-0.04822200580466168</v>
+      </c>
+      <c r="F24">
+        <v>-0.02841611360959151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09123567746856161</v>
+        <v>0.08487483000316104</v>
       </c>
       <c r="C25">
-        <v>-0.01172993246065983</v>
+        <v>-0.004243984965881468</v>
       </c>
       <c r="D25">
-        <v>0.08744698556371712</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1101014984578538</v>
+      </c>
+      <c r="E25">
+        <v>-0.03200103815530066</v>
+      </c>
+      <c r="F25">
+        <v>-0.02559935455061454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05901599810176623</v>
+        <v>0.05921621843231691</v>
       </c>
       <c r="C26">
-        <v>-0.0183943108107074</v>
+        <v>-0.01458732719566079</v>
       </c>
       <c r="D26">
-        <v>0.01543476035074763</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04106358534352667</v>
+      </c>
+      <c r="E26">
+        <v>-0.0285680268071907</v>
+      </c>
+      <c r="F26">
+        <v>0.007203140018403253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1288809634632168</v>
+        <v>0.1416717786621151</v>
       </c>
       <c r="C28">
-        <v>-0.01021472489552982</v>
+        <v>-0.02233688222125609</v>
       </c>
       <c r="D28">
-        <v>-0.2768994453133846</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2615464772311851</v>
+      </c>
+      <c r="E28">
+        <v>0.06690396593881455</v>
+      </c>
+      <c r="F28">
+        <v>-0.004379006647318724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02699950559529158</v>
+        <v>0.02881832222233987</v>
       </c>
       <c r="C29">
-        <v>-0.01000374821405972</v>
+        <v>-0.008755425605227405</v>
       </c>
       <c r="D29">
-        <v>0.01980778752960964</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03136177435230469</v>
+      </c>
+      <c r="E29">
+        <v>-0.01374744446029215</v>
+      </c>
+      <c r="F29">
+        <v>0.01284268819089586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06918422281112309</v>
+        <v>0.05927952456544792</v>
       </c>
       <c r="C30">
-        <v>-0.01054682464903482</v>
+        <v>-0.002669567479138325</v>
       </c>
       <c r="D30">
-        <v>0.05907113937613655</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08911116574175959</v>
+      </c>
+      <c r="E30">
+        <v>-0.01478602646575844</v>
+      </c>
+      <c r="F30">
+        <v>-0.07891913612781735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05119427662809332</v>
+        <v>0.05122643768698272</v>
       </c>
       <c r="C31">
-        <v>-0.01691718610846145</v>
+        <v>-0.01562314402336965</v>
       </c>
       <c r="D31">
-        <v>0.02069769962466262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02487724106452162</v>
+      </c>
+      <c r="E31">
+        <v>-0.02897583343311001</v>
+      </c>
+      <c r="F31">
+        <v>0.00102126992629998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04776367068223258</v>
+        <v>0.05149725803438612</v>
       </c>
       <c r="C32">
-        <v>-0.002007635937939183</v>
+        <v>0.001817797965724523</v>
       </c>
       <c r="D32">
-        <v>0.01980681219497242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03602749497077119</v>
+      </c>
+      <c r="E32">
+        <v>-0.03390412237888828</v>
+      </c>
+      <c r="F32">
+        <v>-0.003638970443588978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09475657388353008</v>
+        <v>0.0885052888097632</v>
       </c>
       <c r="C33">
-        <v>-0.0141206689510307</v>
+        <v>-0.006485099292295767</v>
       </c>
       <c r="D33">
-        <v>0.07489229757721533</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.103148406332018</v>
+      </c>
+      <c r="E33">
+        <v>-0.04417252203862829</v>
+      </c>
+      <c r="F33">
+        <v>-0.03858758107382473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07364759447844461</v>
+        <v>0.06800478460554819</v>
       </c>
       <c r="C34">
-        <v>-0.01646092308633574</v>
+        <v>-0.01002876203084871</v>
       </c>
       <c r="D34">
-        <v>0.08053230403298785</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1103814270101404</v>
+      </c>
+      <c r="E34">
+        <v>-0.03454917663344156</v>
+      </c>
+      <c r="F34">
+        <v>-0.03250246465845013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02451149915942706</v>
+        <v>0.02536681929796786</v>
       </c>
       <c r="C35">
-        <v>-0.0028416020971519</v>
+        <v>-0.002558399831024365</v>
       </c>
       <c r="D35">
-        <v>0.005139106220666261</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01209719477173113</v>
+      </c>
+      <c r="E35">
+        <v>-0.01253794985661057</v>
+      </c>
+      <c r="F35">
+        <v>-0.001107060833936285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02758365483102567</v>
+        <v>0.0276274796169184</v>
       </c>
       <c r="C36">
-        <v>-0.00808268236492321</v>
+        <v>-0.006823574944049478</v>
       </c>
       <c r="D36">
-        <v>0.03810219962774926</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04004891923651307</v>
+      </c>
+      <c r="E36">
+        <v>-0.01675973339667191</v>
+      </c>
+      <c r="F36">
+        <v>-0.01462830738698758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004256305424278603</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006160465373767889</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.00235525609280573</v>
+      </c>
+      <c r="E37">
+        <v>0.0008316619552044482</v>
+      </c>
+      <c r="F37">
+        <v>0.001612903056581963</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1197927501666018</v>
+        <v>0.1043623774579628</v>
       </c>
       <c r="C39">
-        <v>-0.02496519189143595</v>
+        <v>-0.01563306304181095</v>
       </c>
       <c r="D39">
-        <v>0.1359350693788978</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1546631635180824</v>
+      </c>
+      <c r="E39">
+        <v>-0.05888696865263143</v>
+      </c>
+      <c r="F39">
+        <v>-0.02860513144709906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03853870711529658</v>
+        <v>0.04136576610389877</v>
       </c>
       <c r="C40">
-        <v>-0.009920694946828632</v>
+        <v>-0.007111808527035554</v>
       </c>
       <c r="D40">
-        <v>0.009378829140149845</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03046630594919273</v>
+      </c>
+      <c r="E40">
+        <v>-0.0009550780499252108</v>
+      </c>
+      <c r="F40">
+        <v>0.01854031312083345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02466509809442389</v>
+        <v>0.02763727723645354</v>
       </c>
       <c r="C41">
-        <v>-0.007144758006150703</v>
+        <v>-0.006805367528678513</v>
       </c>
       <c r="D41">
-        <v>0.01040038924180779</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01106957085377915</v>
+      </c>
+      <c r="E41">
+        <v>-0.0123185326816252</v>
+      </c>
+      <c r="F41">
+        <v>0.00523056465211049</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04218674473491406</v>
+        <v>0.0407704429276777</v>
       </c>
       <c r="C43">
-        <v>-0.008372772060602409</v>
+        <v>-0.007049884599168986</v>
       </c>
       <c r="D43">
-        <v>0.01221588966957204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0190485201249323</v>
+      </c>
+      <c r="E43">
+        <v>-0.02562308760761548</v>
+      </c>
+      <c r="F43">
+        <v>0.01257813082638807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.08059760432880886</v>
+        <v>0.08050103241390755</v>
       </c>
       <c r="C44">
-        <v>-0.02745268966367019</v>
+        <v>-0.01940315694415164</v>
       </c>
       <c r="D44">
-        <v>0.07077579531443556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09744614819118523</v>
+      </c>
+      <c r="E44">
+        <v>-0.06176422707309661</v>
+      </c>
+      <c r="F44">
+        <v>-0.1581241554086519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02018736201611979</v>
+        <v>0.02317187057883072</v>
       </c>
       <c r="C46">
-        <v>-0.003657735110534311</v>
+        <v>-0.003250524428842889</v>
       </c>
       <c r="D46">
-        <v>0.007391496489917074</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01353258893492808</v>
+      </c>
+      <c r="E46">
+        <v>-0.0261483007261013</v>
+      </c>
+      <c r="F46">
+        <v>0.006959421484662166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05391983402768537</v>
+        <v>0.05263517965540215</v>
       </c>
       <c r="C47">
-        <v>-0.004654219345547238</v>
+        <v>-0.003723345593916252</v>
       </c>
       <c r="D47">
-        <v>0.006063814770793961</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01232177698882114</v>
+      </c>
+      <c r="E47">
+        <v>-0.02378022116321279</v>
+      </c>
+      <c r="F47">
+        <v>0.03215468457407133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04986285063687301</v>
+        <v>0.0500220147789474</v>
       </c>
       <c r="C48">
-        <v>-0.005198517495024694</v>
+        <v>-0.00212346114919978</v>
       </c>
       <c r="D48">
-        <v>0.04070673294326923</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05084546280593107</v>
+      </c>
+      <c r="E48">
+        <v>0.004958836558547305</v>
+      </c>
+      <c r="F48">
+        <v>-0.008849950678784312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2009862624195427</v>
+        <v>0.1994814905077432</v>
       </c>
       <c r="C49">
-        <v>-0.02033280666810745</v>
+        <v>-0.01893680476561012</v>
       </c>
       <c r="D49">
-        <v>-0.02005486331582076</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007077962389812305</v>
+      </c>
+      <c r="E49">
+        <v>-0.02957492223476498</v>
+      </c>
+      <c r="F49">
+        <v>-0.04036782748015365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04973108330805766</v>
+        <v>0.05159704577836426</v>
       </c>
       <c r="C50">
-        <v>-0.013030828359213</v>
+        <v>-0.01130596325482567</v>
       </c>
       <c r="D50">
-        <v>0.02021813499532352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02428530150635152</v>
+      </c>
+      <c r="E50">
+        <v>-0.03016518442662559</v>
+      </c>
+      <c r="F50">
+        <v>-0.01006802338659021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1557314995001043</v>
+        <v>0.1493770493148483</v>
       </c>
       <c r="C52">
-        <v>-0.01904946609769955</v>
+        <v>-0.01769640233688528</v>
       </c>
       <c r="D52">
-        <v>0.04937389361098666</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04154358475140738</v>
+      </c>
+      <c r="E52">
+        <v>-0.02073830653962729</v>
+      </c>
+      <c r="F52">
+        <v>-0.04415226142538214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1718607800951269</v>
+        <v>0.1714368851854623</v>
       </c>
       <c r="C53">
-        <v>-0.01860641018035037</v>
+        <v>-0.02012739727430113</v>
       </c>
       <c r="D53">
-        <v>0.01665449410740653</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004373873500956116</v>
+      </c>
+      <c r="E53">
+        <v>-0.0290922413921959</v>
+      </c>
+      <c r="F53">
+        <v>-0.07434953524494602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.0197266428343693</v>
+        <v>0.02086093527041343</v>
       </c>
       <c r="C54">
-        <v>-0.0126632914363591</v>
+        <v>-0.0112474200187842</v>
       </c>
       <c r="D54">
-        <v>0.02531633346434723</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03481473622140367</v>
+      </c>
+      <c r="E54">
+        <v>-0.0224542373365438</v>
+      </c>
+      <c r="F54">
+        <v>0.003674454692643893</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1141970459235646</v>
+        <v>0.1148568797385075</v>
       </c>
       <c r="C55">
-        <v>-0.01721436156326022</v>
+        <v>-0.01765707184680946</v>
       </c>
       <c r="D55">
-        <v>0.01272981258773758</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007123904959221461</v>
+      </c>
+      <c r="E55">
+        <v>-0.02382725008894783</v>
+      </c>
+      <c r="F55">
+        <v>-0.04734956368037669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1786655669332621</v>
+        <v>0.1769586623836888</v>
       </c>
       <c r="C56">
-        <v>-0.01619458686219383</v>
+        <v>-0.01795419331602198</v>
       </c>
       <c r="D56">
-        <v>0.01147625812901013</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003064440605684771</v>
+      </c>
+      <c r="E56">
+        <v>-0.03271976081789923</v>
+      </c>
+      <c r="F56">
+        <v>-0.05488436775541894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05009892561250793</v>
+        <v>0.04485231935841365</v>
       </c>
       <c r="C58">
-        <v>-0.005830623126935909</v>
+        <v>0.0003735493333137085</v>
       </c>
       <c r="D58">
-        <v>0.05306991405198344</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07110924118889539</v>
+      </c>
+      <c r="E58">
+        <v>-0.03187168227469638</v>
+      </c>
+      <c r="F58">
+        <v>0.03679562082924507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1585754127211726</v>
+        <v>0.1671224487689933</v>
       </c>
       <c r="C59">
-        <v>-0.01212811311506548</v>
+        <v>-0.02260175028197167</v>
       </c>
       <c r="D59">
-        <v>-0.2276876517895886</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2185826568676888</v>
+      </c>
+      <c r="E59">
+        <v>0.04667525522462723</v>
+      </c>
+      <c r="F59">
+        <v>0.03467362049421339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2378845853846261</v>
+        <v>0.232017243517717</v>
       </c>
       <c r="C60">
-        <v>-0.0003542586835915996</v>
+        <v>0.001906377064232408</v>
       </c>
       <c r="D60">
-        <v>0.04464362750998371</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0385275932490125</v>
+      </c>
+      <c r="E60">
+        <v>-0.006434623314400006</v>
+      </c>
+      <c r="F60">
+        <v>-0.0008674945311143723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09023773577867729</v>
+        <v>0.0800330498811717</v>
       </c>
       <c r="C61">
-        <v>-0.01860906024638465</v>
+        <v>-0.01116682110705705</v>
       </c>
       <c r="D61">
-        <v>0.09417451993161961</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1179183232924172</v>
+      </c>
+      <c r="E61">
+        <v>-0.03855648071140703</v>
+      </c>
+      <c r="F61">
+        <v>-0.01191422904084966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1708223587277808</v>
+        <v>0.1693233130487181</v>
       </c>
       <c r="C62">
-        <v>-0.02050324481171322</v>
+        <v>-0.02091796261643004</v>
       </c>
       <c r="D62">
-        <v>0.006175047777847768</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004663148022334957</v>
+      </c>
+      <c r="E62">
+        <v>-0.03310700469080726</v>
+      </c>
+      <c r="F62">
+        <v>-0.03689397470563376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04557294911575034</v>
+        <v>0.04571560521268754</v>
       </c>
       <c r="C63">
-        <v>-0.006194672712406527</v>
+        <v>-0.001657369687292388</v>
       </c>
       <c r="D63">
-        <v>0.03996501961344885</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05910739941998434</v>
+      </c>
+      <c r="E63">
+        <v>-0.0231079727377694</v>
+      </c>
+      <c r="F63">
+        <v>-0.003452710216834554</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1113254731810471</v>
+        <v>0.1107969894599863</v>
       </c>
       <c r="C64">
-        <v>-0.01471576610746324</v>
+        <v>-0.01143050395168043</v>
       </c>
       <c r="D64">
-        <v>0.03319070243195802</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0435595404851012</v>
+      </c>
+      <c r="E64">
+        <v>-0.02271123398500839</v>
+      </c>
+      <c r="F64">
+        <v>-0.02681002155931999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1383630061533532</v>
+        <v>0.1509263429263058</v>
       </c>
       <c r="C65">
-        <v>-0.03224814668603126</v>
+        <v>-0.03432995658160495</v>
       </c>
       <c r="D65">
-        <v>-0.04710091472325741</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04547771988827696</v>
+      </c>
+      <c r="E65">
+        <v>-0.004795790847830854</v>
+      </c>
+      <c r="F65">
+        <v>-0.03775654128054247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1431088370149975</v>
+        <v>0.1240300307615161</v>
       </c>
       <c r="C66">
-        <v>-0.02295413811899726</v>
+        <v>-0.01361435855837195</v>
       </c>
       <c r="D66">
-        <v>0.1131781632672168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1420627302869787</v>
+      </c>
+      <c r="E66">
+        <v>-0.06395629092908625</v>
+      </c>
+      <c r="F66">
+        <v>-0.03279301646722738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06483019630373028</v>
+        <v>0.05730160838608557</v>
       </c>
       <c r="C67">
-        <v>-0.005561012653408018</v>
+        <v>-0.002840371350939776</v>
       </c>
       <c r="D67">
-        <v>0.05142081293449884</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05543231689533949</v>
+      </c>
+      <c r="E67">
+        <v>-0.01607596992017487</v>
+      </c>
+      <c r="F67">
+        <v>0.0298241528229024</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1011471271231039</v>
+        <v>0.116010131566179</v>
       </c>
       <c r="C68">
-        <v>-0.02061245121541982</v>
+        <v>-0.03305721090789716</v>
       </c>
       <c r="D68">
-        <v>-0.2743652803542159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2615268937501322</v>
+      </c>
+      <c r="E68">
+        <v>0.08680402408436549</v>
+      </c>
+      <c r="F68">
+        <v>0.000878569984382459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04093980454844989</v>
+        <v>0.03899491388705522</v>
       </c>
       <c r="C69">
-        <v>-0.001615009371575006</v>
+        <v>-0.001234382347303625</v>
       </c>
       <c r="D69">
-        <v>0.007397439397643955</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008328037791165397</v>
+      </c>
+      <c r="E69">
+        <v>-0.02391640818123355</v>
+      </c>
+      <c r="F69">
+        <v>-0.000953201034591605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06621356983247989</v>
+        <v>0.06649547774793339</v>
       </c>
       <c r="C70">
-        <v>0.02397910451366796</v>
+        <v>0.02740591659272925</v>
       </c>
       <c r="D70">
-        <v>-0.01250523406047185</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02463194176825968</v>
+      </c>
+      <c r="E70">
+        <v>0.0313886874499945</v>
+      </c>
+      <c r="F70">
+        <v>0.1770040245789742</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1195121599850946</v>
+        <v>0.13585784083076</v>
       </c>
       <c r="C71">
-        <v>-0.02405707684737109</v>
+        <v>-0.03742364787890083</v>
       </c>
       <c r="D71">
-        <v>-0.2894869915678828</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2728189185826692</v>
+      </c>
+      <c r="E71">
+        <v>0.09691973864000256</v>
+      </c>
+      <c r="F71">
+        <v>-0.004892220526149377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1376518656854179</v>
+        <v>0.1424081333713802</v>
       </c>
       <c r="C72">
-        <v>-0.02691562929786192</v>
+        <v>-0.02729272498635316</v>
       </c>
       <c r="D72">
-        <v>0.002564481297502243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003209453339709265</v>
+      </c>
+      <c r="E72">
+        <v>-0.03706391634755024</v>
+      </c>
+      <c r="F72">
+        <v>-0.03135146000572946</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2061536041050679</v>
+        <v>0.2044519222361779</v>
       </c>
       <c r="C73">
-        <v>-0.01615062241767638</v>
+        <v>-0.01321400180478266</v>
       </c>
       <c r="D73">
-        <v>0.01412186971110789</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0162574184913717</v>
+      </c>
+      <c r="E73">
+        <v>-0.06256467444281873</v>
+      </c>
+      <c r="F73">
+        <v>-0.04184249427432207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09211580090653433</v>
+        <v>0.09514428611552081</v>
       </c>
       <c r="C74">
-        <v>-0.01320019739885348</v>
+        <v>-0.01347487205231223</v>
       </c>
       <c r="D74">
-        <v>0.02316195887222848</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01685688138146868</v>
+      </c>
+      <c r="E74">
+        <v>-0.04434349519813684</v>
+      </c>
+      <c r="F74">
+        <v>-0.05726203431054382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1339647170117131</v>
+        <v>0.1274739214540769</v>
       </c>
       <c r="C75">
-        <v>-0.02964760173717787</v>
+        <v>-0.02851488167849259</v>
       </c>
       <c r="D75">
-        <v>0.03026940072458095</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02953391383134115</v>
+      </c>
+      <c r="E75">
+        <v>-0.05715520507577589</v>
+      </c>
+      <c r="F75">
+        <v>-0.02214940425168933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08420056922986154</v>
+        <v>0.08909761873639158</v>
       </c>
       <c r="C77">
-        <v>-0.015171810807374</v>
+        <v>-0.008035791345747589</v>
       </c>
       <c r="D77">
-        <v>0.09536005719233995</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1132941155898321</v>
+      </c>
+      <c r="E77">
+        <v>-0.04196183384114493</v>
+      </c>
+      <c r="F77">
+        <v>-0.03303157464158043</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1056683353632233</v>
+        <v>0.1007260665354395</v>
       </c>
       <c r="C78">
-        <v>-0.04714913919455544</v>
+        <v>-0.03949639758040549</v>
       </c>
       <c r="D78">
-        <v>0.09502114568781174</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1137978604378435</v>
+      </c>
+      <c r="E78">
+        <v>-0.07457392860316116</v>
+      </c>
+      <c r="F78">
+        <v>-0.04746992281760457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.164419548208186</v>
+        <v>0.1638161891661497</v>
       </c>
       <c r="C79">
-        <v>-0.02353497416109387</v>
+        <v>-0.02329706776364891</v>
       </c>
       <c r="D79">
-        <v>0.01418503926046825</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01317945133009624</v>
+      </c>
+      <c r="E79">
+        <v>-0.04521215097615468</v>
+      </c>
+      <c r="F79">
+        <v>-0.0122854639755728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08770996932482013</v>
+        <v>0.08179851240737163</v>
       </c>
       <c r="C80">
-        <v>-0.001802228519146856</v>
+        <v>0.0008327299584615976</v>
       </c>
       <c r="D80">
-        <v>0.04068643501875005</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05591478630780492</v>
+      </c>
+      <c r="E80">
+        <v>-0.03481872465351726</v>
+      </c>
+      <c r="F80">
+        <v>0.02034113776762409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1185267894592129</v>
+        <v>0.117992390966718</v>
       </c>
       <c r="C81">
-        <v>-0.03181439776394954</v>
+        <v>-0.03190614090337796</v>
       </c>
       <c r="D81">
-        <v>0.02872483655338647</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0159565227582723</v>
+      </c>
+      <c r="E81">
+        <v>-0.05683703119328795</v>
+      </c>
+      <c r="F81">
+        <v>-0.02099357685057058</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.164986483189893</v>
+        <v>0.1659267300110937</v>
       </c>
       <c r="C82">
-        <v>-0.02403292466963314</v>
+        <v>-0.02539312366602749</v>
       </c>
       <c r="D82">
-        <v>0.01640350417176031</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.00333850699272247</v>
+      </c>
+      <c r="E82">
+        <v>-0.02614374106859146</v>
+      </c>
+      <c r="F82">
+        <v>-0.08170532480159684</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06814180514386453</v>
+        <v>0.05863961901618848</v>
       </c>
       <c r="C83">
-        <v>-0.006453321707001258</v>
+        <v>-0.002859151093657799</v>
       </c>
       <c r="D83">
-        <v>0.03346110449283431</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05051550611313405</v>
+      </c>
+      <c r="E83">
+        <v>-0.003224980306649315</v>
+      </c>
+      <c r="F83">
+        <v>0.02900633924981171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06657688368959949</v>
+        <v>0.05991719358523131</v>
       </c>
       <c r="C84">
-        <v>-0.01502515139366152</v>
+        <v>-0.01146346993013161</v>
       </c>
       <c r="D84">
-        <v>0.05048913148556761</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06238213529506873</v>
+      </c>
+      <c r="E84">
+        <v>-0.006824111135697576</v>
+      </c>
+      <c r="F84">
+        <v>-0.004617886285143264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1371851989377951</v>
+        <v>0.1355791656459239</v>
       </c>
       <c r="C85">
-        <v>-0.02808647742799026</v>
+        <v>-0.02848005599548619</v>
       </c>
       <c r="D85">
-        <v>0.0180052520626913</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.00889411185824778</v>
+      </c>
+      <c r="E85">
+        <v>-0.03605616662789069</v>
+      </c>
+      <c r="F85">
+        <v>-0.04702232087109111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1045227264473829</v>
+        <v>0.09424983035148374</v>
       </c>
       <c r="C86">
-        <v>0.001665744763298092</v>
+        <v>0.006107661583573959</v>
       </c>
       <c r="D86">
-        <v>-0.01277733683126679</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04705864688748061</v>
+      </c>
+      <c r="E86">
+        <v>-0.2366504745849868</v>
+      </c>
+      <c r="F86">
+        <v>0.9052414228940522</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1004360669583101</v>
+        <v>0.0944359761826559</v>
       </c>
       <c r="C87">
-        <v>-0.02926777413278262</v>
+        <v>-0.01934453624335353</v>
       </c>
       <c r="D87">
-        <v>0.06240472317435386</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.094057887358757</v>
+      </c>
+      <c r="E87">
+        <v>0.05390599000051163</v>
+      </c>
+      <c r="F87">
+        <v>-0.04631685926651513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06129337519733814</v>
+        <v>0.06045199970331291</v>
       </c>
       <c r="C88">
-        <v>-0.005353114402880516</v>
+        <v>-0.00223412420003526</v>
       </c>
       <c r="D88">
-        <v>0.05383262240007465</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04983563442540083</v>
+      </c>
+      <c r="E88">
+        <v>-0.02416093294931558</v>
+      </c>
+      <c r="F88">
+        <v>-0.01560455972585564</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1133002474668423</v>
+        <v>0.1272464913890242</v>
       </c>
       <c r="C89">
-        <v>-0.00193599523339342</v>
+        <v>-0.01288927289463541</v>
       </c>
       <c r="D89">
-        <v>-0.264446920141453</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.243718200884622</v>
+      </c>
+      <c r="E89">
+        <v>0.08830775245777873</v>
+      </c>
+      <c r="F89">
+        <v>0.01167172522120367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1296412490633162</v>
+        <v>0.1506168192998669</v>
       </c>
       <c r="C90">
-        <v>-0.02082280465696684</v>
+        <v>-0.03421000398984997</v>
       </c>
       <c r="D90">
-        <v>-0.2772211614611958</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2711831155460883</v>
+      </c>
+      <c r="E90">
+        <v>0.1134610938007194</v>
+      </c>
+      <c r="F90">
+        <v>0.01181141183294509</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1194435381197613</v>
+        <v>0.1215601814321423</v>
       </c>
       <c r="C91">
-        <v>-0.01881126891440582</v>
+        <v>-0.02022345495699397</v>
       </c>
       <c r="D91">
-        <v>-0.006134199010397245</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01608045146489471</v>
+      </c>
+      <c r="E91">
+        <v>-0.05517136884526487</v>
+      </c>
+      <c r="F91">
+        <v>-0.0003502081246975121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1349207945750995</v>
+        <v>0.1471604981363248</v>
       </c>
       <c r="C92">
-        <v>-0.01041403214844066</v>
+        <v>-0.02463746299127081</v>
       </c>
       <c r="D92">
-        <v>-0.3116029889695718</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2913646668450396</v>
+      </c>
+      <c r="E92">
+        <v>0.1011205380797895</v>
+      </c>
+      <c r="F92">
+        <v>0.01875926595242926</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1333787408728128</v>
+        <v>0.1508112962700358</v>
       </c>
       <c r="C93">
-        <v>-0.01638596569699847</v>
+        <v>-0.02918231284521229</v>
       </c>
       <c r="D93">
-        <v>-0.2732379244742595</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2674842117737708</v>
+      </c>
+      <c r="E93">
+        <v>0.07688377545774577</v>
+      </c>
+      <c r="F93">
+        <v>0.003018977061822938</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1350315015031137</v>
+        <v>0.1284426990136036</v>
       </c>
       <c r="C94">
-        <v>-0.02675677682414998</v>
+        <v>-0.0249546394310753</v>
       </c>
       <c r="D94">
-        <v>0.04417666344822609</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04095599807932075</v>
+      </c>
+      <c r="E94">
+        <v>-0.05697285135715461</v>
+      </c>
+      <c r="F94">
+        <v>-0.03552785937957566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.128366971324537</v>
+        <v>0.1264642957579901</v>
       </c>
       <c r="C95">
-        <v>-0.01079867204769523</v>
+        <v>-0.003376835845417552</v>
       </c>
       <c r="D95">
-        <v>0.06788402066171699</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09494753785482266</v>
+      </c>
+      <c r="E95">
+        <v>-0.05015216670660105</v>
+      </c>
+      <c r="F95">
+        <v>0.008672214030726468</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1159354287544182</v>
+        <v>0.1103571374547223</v>
       </c>
       <c r="C96">
-        <v>0.9874714414728806</v>
+        <v>0.9869621592678401</v>
       </c>
       <c r="D96">
-        <v>-0.009667370461590274</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0512782960880912</v>
+      </c>
+      <c r="E96">
+        <v>-0.05269276125104209</v>
+      </c>
+      <c r="F96">
+        <v>-0.04248615396510604</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1919579805166022</v>
+        <v>0.1916307706766619</v>
       </c>
       <c r="C97">
-        <v>0.006295042919523156</v>
+        <v>0.006653528256464078</v>
       </c>
       <c r="D97">
-        <v>-0.01566519724214195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01961178473639668</v>
+      </c>
+      <c r="E97">
+        <v>-0.02157599771520409</v>
+      </c>
+      <c r="F97">
+        <v>0.08995507589406598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1986573337175868</v>
+        <v>0.2061440190986827</v>
       </c>
       <c r="C98">
-        <v>-0.01030514009709718</v>
+        <v>-0.007224466897800767</v>
       </c>
       <c r="D98">
-        <v>0.01442875960325625</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01350134145586392</v>
+      </c>
+      <c r="E98">
+        <v>0.07515898307953758</v>
+      </c>
+      <c r="F98">
+        <v>0.08974897549497246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05701635547625362</v>
+        <v>0.05482704797671399</v>
       </c>
       <c r="C99">
-        <v>0.001979355560314895</v>
+        <v>0.004421836529638272</v>
       </c>
       <c r="D99">
-        <v>0.02312022486742688</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03908718031781139</v>
+      </c>
+      <c r="E99">
+        <v>-0.02175168014366377</v>
+      </c>
+      <c r="F99">
+        <v>-0.00288406303827485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1430965091080026</v>
+        <v>0.1284797010817358</v>
       </c>
       <c r="C100">
-        <v>0.0376935467040708</v>
+        <v>0.05311226605565076</v>
       </c>
       <c r="D100">
-        <v>0.4240132732677374</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3460974268394873</v>
+      </c>
+      <c r="E100">
+        <v>0.8849285457462178</v>
+      </c>
+      <c r="F100">
+        <v>0.1642300919484347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02683275133214418</v>
+        <v>0.02875845711965595</v>
       </c>
       <c r="C101">
-        <v>-0.009904645476698764</v>
+        <v>-0.008773043142439077</v>
       </c>
       <c r="D101">
-        <v>0.0195111598728458</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03101053462870841</v>
+      </c>
+      <c r="E101">
+        <v>-0.01318540229899757</v>
+      </c>
+      <c r="F101">
+        <v>0.0140581445172635</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
